--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1432.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1432.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.837548584332335</v>
+        <v>0.3526261448860168</v>
       </c>
       <c r="B1">
-        <v>1.998821316638454</v>
+        <v>3.745977878570557</v>
       </c>
       <c r="C1">
-        <v>2.185941015787385</v>
+        <v>5.874599933624268</v>
       </c>
       <c r="D1">
-        <v>3.200818208687092</v>
+        <v>1.641469120979309</v>
       </c>
       <c r="E1">
-        <v>1.889242799130519</v>
+        <v>0.9857849478721619</v>
       </c>
     </row>
   </sheetData>
